--- a/TimeGarden.xlsx
+++ b/TimeGarden.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\03_doc\01_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A78F29-091F-41C9-B0F2-16D1135D0737}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOV" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="188">
   <si>
     <t>MON</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,27 +666,117 @@
   <si>
     <t>WTH</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>check e-mail</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>go to bed</t>
+  </si>
+  <si>
+    <t>breaking</t>
+  </si>
+  <si>
+    <t>wakeup</t>
+  </si>
+  <si>
+    <t>stretching,squat</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>prepare work</t>
+  </si>
+  <si>
+    <t>spank</t>
+  </si>
+  <si>
+    <t>e-mail check</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>daily test</t>
+  </si>
+  <si>
+    <t>work plan</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>IND plan</t>
+  </si>
+  <si>
+    <t>work - JSON</t>
+  </si>
+  <si>
+    <t>moving plan</t>
+  </si>
+  <si>
+    <t>Youtube,coffee</t>
+  </si>
+  <si>
+    <t>work - TM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work </t>
+  </si>
+  <si>
+    <t>kakao talk</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>coffee, Youtube</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -696,7 +796,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -818,13 +918,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -834,19 +947,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -873,19 +986,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
@@ -897,7 +1010,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
@@ -912,7 +1025,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -935,6 +1048,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1215,23 +1331,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J118" sqref="J118"/>
+      <selection pane="topRight" activeCell="K140" sqref="K140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="3" customWidth="1"/>
-    <col min="4" max="16" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="3" customWidth="1"/>
+    <col min="4" max="16" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:16" s="4" customFormat="1">
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
         <v>0</v>
@@ -1273,7 +1389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:16" s="4" customFormat="1">
       <c r="C3" s="3"/>
       <c r="D3" s="1">
         <v>19</v>
@@ -1315,7 +1431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:16" s="4" customFormat="1">
       <c r="C4" s="29">
         <v>0.20138888888888887</v>
       </c>
@@ -1335,7 +1451,7 @@
       <c r="O4" s="28"/>
       <c r="P4" s="28"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:16">
       <c r="C5" s="5">
         <v>0.20833333333333334</v>
       </c>
@@ -1343,7 +1459,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:16">
       <c r="C6" s="6">
         <v>0.21527777777777779</v>
       </c>
@@ -1351,7 +1467,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:16">
       <c r="C7" s="6">
         <v>0.22222222222222221</v>
       </c>
@@ -1359,19 +1475,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:16">
       <c r="C8" s="6">
         <v>0.22916666666666666</v>
       </c>
       <c r="J8" s="35"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:16">
       <c r="C9" s="6">
         <v>0.23611111111111113</v>
       </c>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:16">
       <c r="C10" s="7">
         <v>0.24305555555555555</v>
       </c>
@@ -1391,8 +1507,11 @@
         <v>129</v>
       </c>
       <c r="J10" s="31"/>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="K10" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16">
       <c r="C11" s="5">
         <v>0.25</v>
       </c>
@@ -1406,8 +1525,9 @@
       <c r="J11" s="30" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="3:16">
       <c r="C12" s="6">
         <v>0.25694444444444398</v>
       </c>
@@ -1423,8 +1543,9 @@
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="31"/>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="3:16">
       <c r="C13" s="6">
         <v>0.26388888888888901</v>
       </c>
@@ -1446,8 +1567,9 @@
       <c r="J13" s="36" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="3:16">
       <c r="C14" s="6">
         <v>0.27083333333333298</v>
       </c>
@@ -1469,8 +1591,9 @@
       <c r="J14" s="30" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="3:16">
       <c r="C15" s="6">
         <v>0.27777777777777801</v>
       </c>
@@ -1486,8 +1609,9 @@
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="35"/>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="3:16">
       <c r="C16" s="7">
         <v>0.28472222222222199</v>
       </c>
@@ -1503,8 +1627,9 @@
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="35"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="3:11">
       <c r="C17" s="5">
         <v>0.29166666666666702</v>
       </c>
@@ -1519,8 +1644,9 @@
       <c r="H17" s="10"/>
       <c r="I17" s="9"/>
       <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="3:11">
       <c r="C18" s="6">
         <v>0.29861111111111099</v>
       </c>
@@ -1539,8 +1665,9 @@
       <c r="J18" s="30" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="3:11">
       <c r="C19" s="6">
         <v>0.30555555555555602</v>
       </c>
@@ -1557,8 +1684,9 @@
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
       <c r="J19" s="35"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="3:11">
       <c r="C20" s="6">
         <v>0.3125</v>
       </c>
@@ -1571,8 +1699,11 @@
         <v>102</v>
       </c>
       <c r="J20" s="35"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
       <c r="C21" s="6">
         <v>0.31944444444444398</v>
       </c>
@@ -1587,8 +1718,11 @@
       <c r="H21" s="10"/>
       <c r="I21" s="9"/>
       <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
       <c r="C22" s="7">
         <v>0.32638888888888901</v>
       </c>
@@ -1603,8 +1737,11 @@
       <c r="J22" s="30" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
       <c r="C23" s="5">
         <v>0.33333333333333298</v>
       </c>
@@ -1619,8 +1756,9 @@
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="35"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="3:11">
       <c r="C24" s="6">
         <v>0.34027777777777801</v>
       </c>
@@ -1631,8 +1769,9 @@
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="35"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="3:11">
       <c r="C25" s="6">
         <v>0.34722222222222199</v>
       </c>
@@ -1643,8 +1782,11 @@
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
       <c r="J25" s="35"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
       <c r="C26" s="6">
         <v>0.35416666666666602</v>
       </c>
@@ -1659,8 +1801,9 @@
         <v>71</v>
       </c>
       <c r="J26" s="35"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="3:11">
       <c r="C27" s="6">
         <v>0.36111111111111099</v>
       </c>
@@ -1673,21 +1816,30 @@
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="35"/>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
       <c r="C28" s="7">
         <v>0.36805555555555503</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="8" t="s">
         <v>63</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="35"/>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
       <c r="C29" s="5">
         <v>0.375</v>
       </c>
@@ -1697,6 +1849,9 @@
       <c r="E29" s="9" t="s">
         <v>64</v>
       </c>
+      <c r="F29" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="G29" s="8" t="s">
         <v>104</v>
       </c>
@@ -1707,8 +1862,11 @@
         <v>132</v>
       </c>
       <c r="J29" s="35"/>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K29" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
       <c r="C30" s="6">
         <v>0.38194444444444398</v>
       </c>
@@ -1716,14 +1874,18 @@
       <c r="E30" s="10" t="s">
         <v>65</v>
       </c>
+      <c r="F30" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="G30" s="9" t="s">
         <v>105</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="35"/>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K30" s="9"/>
+    </row>
+    <row r="31" spans="3:11">
       <c r="C31" s="6">
         <v>0.38888888888888901</v>
       </c>
@@ -1731,17 +1893,20 @@
       <c r="E31" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
       <c r="J31" s="35"/>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="3:11">
       <c r="C32" s="6">
         <v>0.39583333333333298</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="2" t="s">
         <v>123</v>
@@ -1750,37 +1915,49 @@
         <v>133</v>
       </c>
       <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K32" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
       <c r="C33" s="6">
         <v>0.40277777777777801</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="8" t="s">
         <v>124</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K33" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11">
       <c r="C34" s="7">
         <v>0.40972222222222199</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K34" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
       <c r="C35" s="5">
         <v>0.41666666666666602</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="2" t="s">
@@ -1789,8 +1966,11 @@
       <c r="J35" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K35" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11">
       <c r="C36" s="6">
         <v>0.42361111111111099</v>
       </c>
@@ -1800,14 +1980,18 @@
       <c r="E36" s="8" t="s">
         <v>67</v>
       </c>
+      <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="8" t="s">
         <v>135</v>
       </c>
       <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K36" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11">
       <c r="C37" s="6">
         <v>0.43055555555555503</v>
       </c>
@@ -1815,12 +1999,16 @@
         <v>12</v>
       </c>
       <c r="E37" s="10"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K37" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11">
       <c r="C38" s="6">
         <v>0.4375</v>
       </c>
@@ -1830,6 +2018,7 @@
       <c r="E38" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="8" t="s">
         <v>43</v>
@@ -1840,8 +2029,11 @@
       <c r="J38" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K38" s="19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11">
       <c r="C39" s="6">
         <v>0.44444444444444398</v>
       </c>
@@ -1849,23 +2041,29 @@
       <c r="E39" s="8" t="s">
         <v>69</v>
       </c>
+      <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K39" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11">
       <c r="C40" s="7">
         <v>0.45138888888888901</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="9"/>
+      <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="9"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="3:11">
       <c r="C41" s="5">
         <v>0.45833333333333298</v>
       </c>
@@ -1873,6 +2071,9 @@
         <v>14</v>
       </c>
       <c r="E41" s="9"/>
+      <c r="F41" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="G41" s="8" t="s">
         <v>43</v>
       </c>
@@ -1883,8 +2084,9 @@
       <c r="J41" s="8" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K41" s="9"/>
+    </row>
+    <row r="42" spans="3:11">
       <c r="C42" s="6">
         <v>0.46527777777777801</v>
       </c>
@@ -1892,38 +2094,44 @@
         <v>15</v>
       </c>
       <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
       <c r="J42" s="10"/>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K42" s="9"/>
+    </row>
+    <row r="43" spans="3:11">
       <c r="C43" s="6">
         <v>0.47222222222222199</v>
       </c>
       <c r="D43" s="14"/>
       <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="10"/>
       <c r="J43" s="8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K43" s="9"/>
+    </row>
+    <row r="44" spans="3:11">
       <c r="C44" s="6">
         <v>0.47916666666666602</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="10"/>
+      <c r="F44" s="9"/>
       <c r="G44" s="10"/>
       <c r="H44" s="9"/>
       <c r="I44" s="8" t="s">
         <v>140</v>
       </c>
       <c r="J44" s="9"/>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K44" s="9"/>
+    </row>
+    <row r="45" spans="3:11">
       <c r="C45" s="6">
         <v>0.48611111111111099</v>
       </c>
@@ -1931,14 +2139,16 @@
       <c r="E45" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="F45" s="10"/>
       <c r="G45" s="8" t="s">
         <v>106</v>
       </c>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K45" s="9"/>
+    </row>
+    <row r="46" spans="3:11">
       <c r="C46" s="16">
         <v>0.49305555555555503</v>
       </c>
@@ -1946,25 +2156,31 @@
         <v>16</v>
       </c>
       <c r="E46" s="9"/>
+      <c r="F46" s="8" t="s">
+        <v>162</v>
+      </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="10"/>
       <c r="J46" s="9"/>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K46" s="9"/>
+    </row>
+    <row r="47" spans="3:11">
       <c r="C47" s="5">
         <v>0.5</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="10"/>
+      <c r="F47" s="9"/>
       <c r="G47" s="10"/>
       <c r="H47" s="9"/>
       <c r="I47" s="8" t="s">
         <v>138</v>
       </c>
       <c r="J47" s="9"/>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K47" s="9"/>
+    </row>
+    <row r="48" spans="3:11">
       <c r="C48" s="6">
         <v>0.50694444444444398</v>
       </c>
@@ -1974,36 +2190,44 @@
       <c r="E48" s="8" t="s">
         <v>71</v>
       </c>
+      <c r="F48" s="10"/>
       <c r="G48" s="8" t="s">
         <v>107</v>
       </c>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K48" s="9"/>
+    </row>
+    <row r="49" spans="3:11">
       <c r="C49" s="6">
         <v>0.51388888888888895</v>
       </c>
       <c r="D49" s="14"/>
       <c r="E49" s="9"/>
+      <c r="F49" s="8" t="s">
+        <v>163</v>
+      </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K49" s="9"/>
+    </row>
+    <row r="50" spans="3:11">
       <c r="C50" s="6">
         <v>0.52083333333333304</v>
       </c>
       <c r="D50" s="15"/>
       <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="3:11">
       <c r="C51" s="18">
         <v>0.52777777777777801</v>
       </c>
@@ -2011,12 +2235,16 @@
         <v>18</v>
       </c>
       <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K51" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11">
       <c r="C52" s="16">
         <v>0.53472222222222199</v>
       </c>
@@ -2024,12 +2252,14 @@
       <c r="E52" s="10" t="s">
         <v>72</v>
       </c>
+      <c r="F52" s="9"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="3:11">
       <c r="C53" s="5">
         <v>0.54166666666666596</v>
       </c>
@@ -2037,6 +2267,7 @@
       <c r="E53" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="F53" s="9"/>
       <c r="G53" s="8" t="s">
         <v>108</v>
       </c>
@@ -2049,8 +2280,9 @@
       <c r="J53" s="11" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K53" s="9"/>
+    </row>
+    <row r="54" spans="3:11">
       <c r="C54" s="6">
         <v>0.54861111111111105</v>
       </c>
@@ -2058,14 +2290,16 @@
         <v>19</v>
       </c>
       <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9" t="s">
         <v>141</v>
       </c>
       <c r="J54" s="9"/>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="3:11">
       <c r="C55" s="6">
         <v>0.55555555555555503</v>
       </c>
@@ -2073,14 +2307,18 @@
         <v>20</v>
       </c>
       <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9" t="s">
         <v>142</v>
       </c>
       <c r="J55" s="9"/>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K55" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="3:11">
       <c r="C56" s="6">
         <v>0.5625</v>
       </c>
@@ -2088,12 +2326,14 @@
         <v>21</v>
       </c>
       <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K56" s="9"/>
+    </row>
+    <row r="57" spans="3:11">
       <c r="C57" s="6">
         <v>0.56944444444444398</v>
       </c>
@@ -2101,23 +2341,27 @@
         <v>22</v>
       </c>
       <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K57" s="9"/>
+    </row>
+    <row r="58" spans="3:11">
       <c r="C58" s="7">
         <v>0.57638888888888895</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="9"/>
+      <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="9"/>
       <c r="J58" s="10"/>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="3:11">
       <c r="C59" s="5">
         <v>0.58333333333333304</v>
       </c>
@@ -2125,6 +2369,9 @@
         <v>23</v>
       </c>
       <c r="E59" s="9"/>
+      <c r="F59" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="G59" s="8" t="s">
         <v>84</v>
       </c>
@@ -2135,30 +2382,37 @@
       <c r="J59" s="8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K59" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11">
       <c r="C60" s="6">
         <v>0.59027777777777801</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K60" s="9"/>
+    </row>
+    <row r="61" spans="3:11">
       <c r="C61" s="6">
         <v>0.59722222222222199</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
       <c r="G61" s="10"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K61" s="10"/>
+    </row>
+    <row r="62" spans="3:11">
       <c r="C62" s="6">
         <v>0.60416666666666596</v>
       </c>
@@ -2166,25 +2420,31 @@
       <c r="E62" s="9" t="s">
         <v>74</v>
       </c>
+      <c r="F62" s="9"/>
       <c r="G62" s="8" t="s">
         <v>109</v>
       </c>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K62" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11">
       <c r="C63" s="6">
         <v>0.61111111111111105</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
-    </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K63" s="10"/>
+    </row>
+    <row r="64" spans="3:11">
       <c r="C64" s="16">
         <v>0.61805555555555503</v>
       </c>
@@ -2192,23 +2452,29 @@
         <v>11</v>
       </c>
       <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
-    </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K64" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="3:11">
       <c r="C65" s="20">
         <v>0.625</v>
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="10"/>
+      <c r="F65" s="9"/>
       <c r="G65" s="10"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
-    </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K65" s="9"/>
+    </row>
+    <row r="66" spans="3:11">
       <c r="C66" s="18">
         <v>0.63194444444444398</v>
       </c>
@@ -2218,14 +2484,16 @@
       <c r="E66" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="F66" s="9"/>
       <c r="G66" s="8" t="s">
         <v>110</v>
       </c>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
-    </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K66" s="10"/>
+    </row>
+    <row r="67" spans="3:11">
       <c r="C67" s="18">
         <v>0.63888888888888895</v>
       </c>
@@ -2235,12 +2503,16 @@
       <c r="E67" s="8" t="s">
         <v>76</v>
       </c>
+      <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
-    </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K67" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11">
       <c r="C68" s="18">
         <v>0.64583333333333304</v>
       </c>
@@ -2248,12 +2520,14 @@
         <v>27</v>
       </c>
       <c r="E68" s="10"/>
+      <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
-    </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K68" s="9"/>
+    </row>
+    <row r="69" spans="3:11">
       <c r="C69" s="18">
         <v>0.65277777777777801</v>
       </c>
@@ -2261,28 +2535,35 @@
       <c r="E69" s="8" t="s">
         <v>77</v>
       </c>
+      <c r="F69" s="9"/>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
-    </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K69" s="10"/>
+    </row>
+    <row r="70" spans="3:11">
       <c r="C70" s="16">
         <v>0.65972222222222199</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
-    </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K70" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11">
       <c r="C71" s="5">
         <v>0.66666666666666696</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
       <c r="G71" s="8" t="s">
         <v>111</v>
       </c>
@@ -2291,30 +2572,35 @@
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
-    </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K71" s="9"/>
+    </row>
+    <row r="72" spans="3:11">
       <c r="C72" s="6">
         <v>0.67361111111111105</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
-    </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K72" s="9"/>
+    </row>
+    <row r="73" spans="3:11">
       <c r="C73" s="6">
         <v>0.68055555555555503</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="10"/>
+      <c r="F73" s="9"/>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
-    </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K73" s="9"/>
+    </row>
+    <row r="74" spans="3:11">
       <c r="C74" s="6">
         <v>0.6875</v>
       </c>
@@ -2322,34 +2608,40 @@
       <c r="E74" s="8" t="s">
         <v>78</v>
       </c>
+      <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-    </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K74" s="9"/>
+    </row>
+    <row r="75" spans="3:11">
       <c r="C75" s="6">
         <v>0.69444444444444398</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
-    </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K75" s="9"/>
+    </row>
+    <row r="76" spans="3:11">
       <c r="C76" s="7">
         <v>0.70138888888888895</v>
       </c>
       <c r="D76" s="10"/>
       <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
-    </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K76" s="9"/>
+    </row>
+    <row r="77" spans="3:11">
       <c r="C77" s="5">
         <v>0.70833333333333304</v>
       </c>
@@ -2358,13 +2650,17 @@
       </c>
       <c r="E77" s="2" t="s">
         <v>79</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
-    </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K77" s="9"/>
+    </row>
+    <row r="78" spans="3:11">
       <c r="C78" s="6">
         <v>0.71527777777777801</v>
       </c>
@@ -2372,23 +2668,27 @@
       <c r="E78" s="8" t="s">
         <v>80</v>
       </c>
+      <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
-    </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K78" s="9"/>
+    </row>
+    <row r="79" spans="3:11">
       <c r="C79" s="6">
         <v>0.72222222222222199</v>
       </c>
       <c r="D79" s="15"/>
       <c r="E79" s="10"/>
+      <c r="F79" s="9"/>
       <c r="G79" s="10"/>
       <c r="H79" s="9"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
-    </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K79" s="9"/>
+    </row>
+    <row r="80" spans="3:11">
       <c r="C80" s="6">
         <v>0.72916666666666696</v>
       </c>
@@ -2398,25 +2698,29 @@
       <c r="E80" s="8" t="s">
         <v>81</v>
       </c>
+      <c r="F80" s="9"/>
       <c r="G80" s="8" t="s">
         <v>81</v>
       </c>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
-    </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K80" s="9"/>
+    </row>
+    <row r="81" spans="3:11">
       <c r="C81" s="6">
         <v>0.73611111111111105</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
-    </row>
-    <row r="82" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K81" s="9"/>
+    </row>
+    <row r="82" spans="3:11">
       <c r="C82" s="16">
         <v>0.74305555555555503</v>
       </c>
@@ -2426,25 +2730,31 @@
       <c r="E82" s="9" t="s">
         <v>82</v>
       </c>
+      <c r="F82" s="10"/>
       <c r="G82" s="9"/>
       <c r="H82" s="10"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
-    </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K82" s="9"/>
+    </row>
+    <row r="83" spans="3:11">
       <c r="C83" s="5">
         <v>0.75</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="9"/>
+      <c r="F83" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="G83" s="9"/>
       <c r="H83" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
-    </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K83" s="9"/>
+    </row>
+    <row r="84" spans="3:11">
       <c r="C84" s="18">
         <v>0.75694444444444398</v>
       </c>
@@ -2452,58 +2762,72 @@
         <v>30</v>
       </c>
       <c r="E84" s="9"/>
+      <c r="F84" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
-    </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K84" s="9"/>
+    </row>
+    <row r="85" spans="3:11">
       <c r="C85" s="18">
         <v>0.76388888888888895</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
       <c r="J85" s="10"/>
-    </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K85" s="10"/>
+    </row>
+    <row r="86" spans="3:11">
       <c r="C86" s="18">
         <v>0.77083333333333304</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
       <c r="G86" s="9"/>
       <c r="H86" s="9"/>
       <c r="I86" s="9"/>
       <c r="J86" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K86" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11">
       <c r="C87" s="18">
         <v>0.77777777777777801</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
-    </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K87" s="9"/>
+    </row>
+    <row r="88" spans="3:11">
       <c r="C88" s="16">
         <v>0.78472222222222199</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="10"/>
+      <c r="F88" s="9"/>
       <c r="G88" s="9"/>
       <c r="H88" s="10"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
-    </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K88" s="9"/>
+    </row>
+    <row r="89" spans="3:11">
       <c r="C89" s="5">
         <v>0.79166666666666696</v>
       </c>
@@ -2511,62 +2835,74 @@
       <c r="E89" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="F89" s="9"/>
       <c r="G89" s="9"/>
       <c r="H89" s="8" t="s">
         <v>126</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
-    </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K89" s="9"/>
+    </row>
+    <row r="90" spans="3:11">
       <c r="C90" s="6">
         <v>0.79861111111111105</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
       <c r="G90" s="10"/>
       <c r="H90" s="9"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
-    </row>
-    <row r="91" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K90" s="9"/>
+    </row>
+    <row r="91" spans="3:11">
       <c r="C91" s="6">
         <v>0.80555555555555602</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
       <c r="G91" s="8" t="s">
         <v>112</v>
       </c>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
       <c r="J91" s="10"/>
-    </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K91" s="10"/>
+    </row>
+    <row r="92" spans="3:11">
       <c r="C92" s="6">
         <v>0.8125</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
       <c r="I92" s="9"/>
-      <c r="J92" s="8" t="s">
+      <c r="J92" s="21" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K92" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="93" spans="3:11">
       <c r="C93" s="6">
         <v>0.81944444444444398</v>
       </c>
       <c r="D93" s="15"/>
       <c r="E93" s="10"/>
+      <c r="F93" s="9"/>
       <c r="G93" s="9"/>
       <c r="H93" s="9"/>
       <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-    </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J93" s="22"/>
+      <c r="K93" s="9"/>
+    </row>
+    <row r="94" spans="3:11">
       <c r="C94" s="16">
         <v>0.82638888888888895</v>
       </c>
@@ -2576,12 +2912,14 @@
       <c r="E94" s="8" t="s">
         <v>84</v>
       </c>
+      <c r="F94" s="9"/>
       <c r="G94" s="9"/>
       <c r="H94" s="9"/>
       <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-    </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J94" s="25"/>
+      <c r="K94" s="9"/>
+    </row>
+    <row r="95" spans="3:11">
       <c r="C95" s="20">
         <v>0.83333333333333304</v>
       </c>
@@ -2589,16 +2927,18 @@
         <v>32</v>
       </c>
       <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="J95" s="8" t="s">
+      <c r="J95" s="21" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K95" s="9"/>
+    </row>
+    <row r="96" spans="3:11">
       <c r="C96" s="18">
         <v>0.84027777777777801</v>
       </c>
@@ -2606,12 +2946,14 @@
         <v>33</v>
       </c>
       <c r="E96" s="10"/>
+      <c r="F96" s="9"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
       <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-    </row>
-    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J96" s="22"/>
+      <c r="K96" s="9"/>
+    </row>
+    <row r="97" spans="3:11">
       <c r="C97" s="18">
         <v>0.84722222222222199</v>
       </c>
@@ -2621,52 +2963,61 @@
       <c r="E97" s="8" t="s">
         <v>85</v>
       </c>
+      <c r="F97" s="9"/>
       <c r="G97" s="10"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
-      <c r="J97" s="9"/>
-    </row>
-    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J97" s="22"/>
+      <c r="K97" s="9"/>
+    </row>
+    <row r="98" spans="3:11">
       <c r="C98" s="18">
         <v>0.85416666666666696</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
       <c r="G98" s="8" t="s">
         <v>83</v>
       </c>
       <c r="H98" s="9"/>
       <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-    </row>
-    <row r="99" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J98" s="22"/>
+      <c r="K98" s="9"/>
+    </row>
+    <row r="99" spans="3:11">
       <c r="C99" s="18">
         <v>0.86111111111111105</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
       <c r="G99" s="9"/>
       <c r="H99" s="9"/>
       <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-    </row>
-    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J99" s="22"/>
+      <c r="K99" s="9"/>
+    </row>
+    <row r="100" spans="3:11">
       <c r="C100" s="16">
         <v>0.86805555555555602</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-    </row>
-    <row r="101" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J100" s="25"/>
+      <c r="K100" s="9"/>
+    </row>
+    <row r="101" spans="3:11">
       <c r="C101" s="5">
         <v>0.875</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="10"/>
+      <c r="F101" s="9"/>
       <c r="G101" s="9"/>
       <c r="H101" s="8" t="s">
         <v>127</v>
@@ -2674,11 +3025,12 @@
       <c r="I101" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="J101" s="8" t="s">
+      <c r="J101" s="21" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="102" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K101" s="9"/>
+    </row>
+    <row r="102" spans="3:11">
       <c r="C102" s="6">
         <v>0.88194444444444398</v>
       </c>
@@ -2686,12 +3038,14 @@
       <c r="E102" s="8" t="s">
         <v>86</v>
       </c>
+      <c r="F102" s="9"/>
       <c r="G102" s="9"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-    </row>
-    <row r="103" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J102" s="22"/>
+      <c r="K102" s="9"/>
+    </row>
+    <row r="103" spans="3:11">
       <c r="C103" s="6">
         <v>0.88888888888888895</v>
       </c>
@@ -2699,12 +3053,14 @@
         <v>35</v>
       </c>
       <c r="E103" s="10"/>
+      <c r="F103" s="9"/>
       <c r="G103" s="10"/>
       <c r="H103" s="9"/>
       <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
-    </row>
-    <row r="104" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J103" s="22"/>
+      <c r="K103" s="9"/>
+    </row>
+    <row r="104" spans="3:11">
       <c r="C104" s="6">
         <v>0.89583333333333304</v>
       </c>
@@ -2714,76 +3070,89 @@
       <c r="E104" s="8" t="s">
         <v>71</v>
       </c>
+      <c r="F104" s="9"/>
       <c r="G104" s="8" t="s">
         <v>113</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-    </row>
-    <row r="105" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J104" s="22"/>
+      <c r="K104" s="9"/>
+    </row>
+    <row r="105" spans="3:11">
       <c r="C105" s="6">
         <v>0.90277777777777801</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-    </row>
-    <row r="106" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J105" s="22"/>
+      <c r="K105" s="9"/>
+    </row>
+    <row r="106" spans="3:11">
       <c r="C106" s="7">
         <v>0.90972222222222199</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
       <c r="G106" s="9"/>
       <c r="H106" s="10"/>
       <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-    </row>
-    <row r="107" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J106" s="22"/>
+      <c r="K106" s="9"/>
+    </row>
+    <row r="107" spans="3:11">
       <c r="C107" s="5">
         <v>0.91666666666666696</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
       <c r="G107" s="9"/>
       <c r="H107" s="8" t="s">
         <v>128</v>
       </c>
       <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-    </row>
-    <row r="108" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J107" s="22"/>
+      <c r="K107" s="9"/>
+    </row>
+    <row r="108" spans="3:11">
       <c r="C108" s="6">
         <v>0.92361111111111105</v>
       </c>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
       <c r="I108" s="9"/>
-      <c r="J108" s="9"/>
-    </row>
-    <row r="109" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J108" s="22"/>
+      <c r="K108" s="9"/>
+    </row>
+    <row r="109" spans="3:11">
       <c r="C109" s="6">
         <v>0.93055555555555602</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
       <c r="G109" s="10"/>
       <c r="H109" s="10"/>
       <c r="I109" s="9"/>
-      <c r="J109" s="9"/>
-    </row>
-    <row r="110" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J109" s="22"/>
+      <c r="K109" s="9"/>
+    </row>
+    <row r="110" spans="3:11">
       <c r="C110" s="6">
         <v>0.9375</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
       <c r="G110" s="8" t="s">
         <v>114</v>
       </c>
@@ -2791,20 +3160,23 @@
         <v>114</v>
       </c>
       <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
-    </row>
-    <row r="111" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J110" s="22"/>
+      <c r="K110" s="9"/>
+    </row>
+    <row r="111" spans="3:11">
       <c r="C111" s="6">
         <v>0.94444444444444398</v>
       </c>
       <c r="D111" s="10"/>
       <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
       <c r="G111" s="9"/>
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
-      <c r="J111" s="10"/>
-    </row>
-    <row r="112" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J111" s="25"/>
+      <c r="K111" s="9"/>
+    </row>
+    <row r="112" spans="3:11">
       <c r="C112" s="16">
         <v>0.95138888888888895</v>
       </c>
@@ -2812,25 +3184,29 @@
         <v>37</v>
       </c>
       <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
-      <c r="J112" s="8" t="s">
+      <c r="J112" s="21" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="113" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K112" s="9"/>
+    </row>
+    <row r="113" spans="3:11">
       <c r="C113" s="5">
         <v>0.95833333333333304</v>
       </c>
       <c r="D113" s="15"/>
       <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
       <c r="G113" s="9"/>
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
-      <c r="J113" s="10"/>
-    </row>
-    <row r="114" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J113" s="25"/>
+      <c r="K113" s="9"/>
+    </row>
+    <row r="114" spans="3:11">
       <c r="C114" s="6">
         <v>0.96527777777777801</v>
       </c>
@@ -2838,36 +3214,44 @@
         <v>38</v>
       </c>
       <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
       <c r="G114" s="9"/>
       <c r="H114" s="9"/>
       <c r="I114" s="9"/>
-      <c r="J114" s="8" t="s">
+      <c r="J114" s="21" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="115" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K114" s="9"/>
+    </row>
+    <row r="115" spans="3:11">
       <c r="C115" s="6">
         <v>0.97222222222222199</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
+      <c r="F115" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="G115" s="9"/>
       <c r="H115" s="9"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="9"/>
-    </row>
-    <row r="116" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J115" s="22"/>
+      <c r="K115" s="9"/>
+    </row>
+    <row r="116" spans="3:11">
       <c r="C116" s="6">
         <v>0.97916666666666696</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
       <c r="I116" s="9"/>
-      <c r="J116" s="10"/>
-    </row>
-    <row r="117" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J116" s="25"/>
+      <c r="K116" s="9"/>
+    </row>
+    <row r="117" spans="3:11">
       <c r="C117" s="6">
         <v>0.98611111111111105</v>
       </c>
@@ -2875,14 +3259,18 @@
       <c r="E117" s="10" t="s">
         <v>87</v>
       </c>
+      <c r="F117" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="G117" s="9"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
-      <c r="J117" s="2" t="s">
+      <c r="J117" s="37" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K117" s="9"/>
+    </row>
+    <row r="118" spans="3:11">
       <c r="C118" s="7">
         <v>0.99305555555555602</v>
       </c>
@@ -2898,68 +3286,69 @@
       <c r="I118" s="27" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="119" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K118" s="10"/>
+    </row>
+    <row r="119" spans="3:11">
       <c r="C119" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:11">
       <c r="C120" s="6">
         <v>1.00694444444444</v>
       </c>
     </row>
-    <row r="121" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:11">
       <c r="C121" s="6">
         <v>1.0138888888888899</v>
       </c>
     </row>
-    <row r="122" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:11">
       <c r="C122" s="6">
         <v>1.0208333333333299</v>
       </c>
     </row>
-    <row r="123" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:11">
       <c r="C123" s="6">
         <v>1.0277777777777799</v>
       </c>
     </row>
-    <row r="124" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:11">
       <c r="C124" s="7">
         <v>1.0347222222222201</v>
       </c>
     </row>
-    <row r="125" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:11">
       <c r="C125" s="5">
         <v>1.0416666666666701</v>
       </c>
     </row>
-    <row r="126" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:11">
       <c r="C126" s="6">
         <v>1.0486111111111101</v>
       </c>
     </row>
-    <row r="127" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:11">
       <c r="C127" s="6">
         <v>1.05555555555556</v>
       </c>
     </row>
-    <row r="128" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:11">
       <c r="C128" s="6">
         <v>1.0625</v>
       </c>
     </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:15">
       <c r="C129" s="6">
         <v>1.06944444444444</v>
       </c>
     </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:15">
       <c r="C130" s="7">
         <v>1.0763888888888899</v>
       </c>
     </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:15">
       <c r="B133" s="23" t="s">
         <v>50</v>
       </c>
@@ -2983,13 +3372,15 @@
         <v>30</v>
       </c>
       <c r="J133" s="23"/>
-      <c r="K133" s="23"/>
+      <c r="K133" s="23">
+        <v>100</v>
+      </c>
       <c r="L133" s="23"/>
       <c r="M133" s="23"/>
       <c r="N133" s="23"/>
       <c r="O133" s="23"/>
     </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:15">
       <c r="B134" t="s">
         <v>40</v>
       </c>
@@ -3014,8 +3405,11 @@
       <c r="J134">
         <v>40</v>
       </c>
-    </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K134">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15">
       <c r="B135" t="s">
         <v>44</v>
       </c>
@@ -3025,6 +3419,9 @@
       <c r="E135">
         <v>30</v>
       </c>
+      <c r="F135">
+        <v>30</v>
+      </c>
       <c r="G135">
         <v>30</v>
       </c>
@@ -3037,8 +3434,11 @@
       <c r="J135">
         <v>60</v>
       </c>
-    </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K135">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15">
       <c r="B136" t="s">
         <v>48</v>
       </c>
@@ -3060,8 +3460,11 @@
       <c r="J136">
         <v>60</v>
       </c>
-    </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K136">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15">
       <c r="B137" t="s">
         <v>61</v>
       </c>
@@ -3087,7 +3490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:15">
       <c r="B138" s="23" t="s">
         <v>116</v>
       </c>
@@ -3107,7 +3510,7 @@
       <c r="N138" s="23"/>
       <c r="O138" s="23"/>
     </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:15">
       <c r="B139" t="s">
         <v>41</v>
       </c>
@@ -3130,7 +3533,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:15">
       <c r="B140" t="s">
         <v>47</v>
       </c>
@@ -3150,7 +3553,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:15">
       <c r="B141" t="s">
         <v>45</v>
       </c>
@@ -3161,7 +3564,7 @@
         <v>180</v>
       </c>
       <c r="F141">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G141">
         <v>120</v>
@@ -3175,8 +3578,11 @@
       <c r="J141">
         <v>80</v>
       </c>
-    </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K141">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15">
       <c r="B142" t="s">
         <v>42</v>
       </c>
@@ -3184,7 +3590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:15">
       <c r="B143" s="23" t="s">
         <v>89</v>
       </c>
@@ -3195,7 +3601,9 @@
       <c r="E143" s="23">
         <v>120</v>
       </c>
-      <c r="F143" s="23"/>
+      <c r="F143" s="23">
+        <v>110</v>
+      </c>
       <c r="G143" s="23">
         <v>170</v>
       </c>
@@ -3204,13 +3612,15 @@
       </c>
       <c r="I143" s="23"/>
       <c r="J143" s="23"/>
-      <c r="K143" s="23"/>
+      <c r="K143" s="23">
+        <v>200</v>
+      </c>
       <c r="L143" s="23"/>
       <c r="M143" s="23"/>
       <c r="N143" s="23"/>
       <c r="O143" s="23"/>
     </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:15">
       <c r="B144" t="s">
         <v>90</v>
       </c>
@@ -3230,7 +3640,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:15">
       <c r="B145" t="s">
         <v>43</v>
       </c>
@@ -3240,14 +3650,20 @@
       <c r="E145">
         <v>150</v>
       </c>
+      <c r="F145">
+        <v>290</v>
+      </c>
       <c r="G145">
         <v>60</v>
       </c>
       <c r="H145">
         <v>300</v>
       </c>
-    </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K145">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="146" spans="2:15">
       <c r="B146" t="s">
         <v>51</v>
       </c>
@@ -3257,11 +3673,17 @@
       <c r="E146">
         <v>80</v>
       </c>
+      <c r="F146">
+        <v>10</v>
+      </c>
       <c r="G146">
         <v>100</v>
       </c>
-    </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K146">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="2:15">
       <c r="B147" t="s">
         <v>46</v>
       </c>
@@ -3269,7 +3691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:15">
       <c r="B148" s="23" t="s">
         <v>88</v>
       </c>
@@ -3280,7 +3702,9 @@
       <c r="E148" s="23">
         <v>60</v>
       </c>
-      <c r="F148" s="23"/>
+      <c r="F148" s="23">
+        <v>40</v>
+      </c>
       <c r="G148" s="23">
         <v>30</v>
       </c>
@@ -3293,13 +3717,15 @@
       <c r="J148" s="23">
         <v>190</v>
       </c>
-      <c r="K148" s="23"/>
+      <c r="K148" s="23">
+        <v>20</v>
+      </c>
       <c r="L148" s="23"/>
       <c r="M148" s="23"/>
       <c r="N148" s="23"/>
       <c r="O148" s="23"/>
     </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:15">
       <c r="B149" t="s">
         <v>114</v>
       </c>
@@ -3313,7 +3739,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:15">
       <c r="B150" t="s">
         <v>49</v>
       </c>
@@ -3335,8 +3761,11 @@
       <c r="J150">
         <v>40</v>
       </c>
-    </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K150">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15">
       <c r="B151" t="s">
         <v>52</v>
       </c>
@@ -3361,8 +3790,11 @@
       <c r="J151">
         <v>10</v>
       </c>
-    </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="2:15">
       <c r="B152" t="s">
         <v>91</v>
       </c>
@@ -3373,7 +3805,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:15">
       <c r="B153" s="23" t="s">
         <v>92</v>
       </c>
@@ -3391,15 +3823,37 @@
       <c r="J153" s="23">
         <v>30</v>
       </c>
-      <c r="K153" s="23"/>
+      <c r="K153" s="23">
+        <v>30</v>
+      </c>
       <c r="L153" s="23"/>
       <c r="M153" s="23"/>
       <c r="N153" s="23"/>
       <c r="O153" s="23"/>
+    </row>
+    <row r="154" spans="2:15">
+      <c r="B154" t="s">
+        <v>164</v>
+      </c>
+      <c r="F154">
+        <v>330</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFA463E-FB1F-49B7-B5B3-CFC989AF1041}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>